--- a/XenditTestData.xlsx
+++ b/XenditTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XenditAutomation\XenditAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A7AE37-5BD5-4B9E-92E6-C717247965BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0AECEF-BC76-452E-81F8-2A5D14150604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="LoginDetails" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ObjectRepository!$A$1:$C$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ObjectRepository!$A$1:$C$195</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="282">
   <si>
     <t>Password</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Bayar Sekarang</t>
   </si>
   <si>
-    <t>xpath#//input[@id='password']</t>
-  </si>
-  <si>
     <t>Submit</t>
   </si>
   <si>
@@ -401,9 +398,6 @@
     <t>Channel</t>
   </si>
   <si>
-    <t>xpath#//button[@type='button']/span</t>
-  </si>
-  <si>
     <t>GenerateAccessToken</t>
   </si>
   <si>
@@ -825,6 +819,72 @@
   </si>
   <si>
     <t>https://dashboard.xendit.co/home</t>
+  </si>
+  <si>
+    <t>XenditRefundApproval</t>
+  </si>
+  <si>
+    <t>GcashRefundDetailedReport</t>
+  </si>
+  <si>
+    <t>xpath#//a[text()='GCash Refund Detailed Report']</t>
+  </si>
+  <si>
+    <t>RevenueAccountingReport</t>
+  </si>
+  <si>
+    <t>ChannelSelect</t>
+  </si>
+  <si>
+    <t>xpath#//div[text()='Channel']/following-sibling::div/button/span</t>
+  </si>
+  <si>
+    <t>xpath#(//button[@type='button']/span)[1]</t>
+  </si>
+  <si>
+    <t>xpath#//input[@placeholder=' Enter Code Here']</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>xpath#//*[text()='System']</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>xpath#//*[text()='Configuration']</t>
+  </si>
+  <si>
+    <t>IPAddress</t>
+  </si>
+  <si>
+    <t>xpath#//input[@placeholder='IP Address']</t>
+  </si>
+  <si>
+    <t>ApplyButton</t>
+  </si>
+  <si>
+    <t>YesButton</t>
+  </si>
+  <si>
+    <t>xpath#//button/div[text()='Yes']</t>
+  </si>
+  <si>
+    <t>xpath#//span[text()='Save Changes Alert']/following::div[contains(@class,'ModalContent')]</t>
+  </si>
+  <si>
+    <t>ConfigurationMessage</t>
+  </si>
+  <si>
+    <t>GobackButton</t>
+  </si>
+  <si>
+    <t>xpath#//button/div[text()='Go back']</t>
+  </si>
+  <si>
+    <t>xpath#//button/div[text()='Apply']</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1242,7 +1302,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -1266,10 +1326,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1296,10 +1356,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B46" activeCellId="1" sqref="C53 B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,10 +1455,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1417,31 +1477,31 @@
         <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1462,7 +1522,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
@@ -1470,66 +1530,66 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1540,7 +1600,7 @@
         <v>36</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1548,7 +1608,7 @@
         <v>37</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1556,31 +1616,31 @@
         <v>38</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1588,7 +1648,7 @@
         <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1604,1145 +1664,1225 @@
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>41</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>74</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>75</v>
+        <v>279</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>76</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>78</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>80</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>82</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>86</v>
+        <v>274</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>85</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>87</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>257</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>259</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>99</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>105</v>
+        <v>261</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>106</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>107</v>
+        <v>258</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>108</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>124</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
-        <v>222</v>
+        <v>127</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>223</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>225</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>221</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>227</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
-        <v>229</v>
+        <v>136</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>231</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>234</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="B101" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="B102" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-      <c r="B103" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-      <c r="B104" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="5"/>
-      <c r="B105" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
-      <c r="B106" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
       <c r="B109" s="2" t="s">
-        <v>166</v>
+        <v>247</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>167</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
+      <c r="A110" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="2" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="2" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="2" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="2" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="2" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="2" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="2" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="s">
-        <v>207</v>
-      </c>
+      <c r="A124" s="5"/>
       <c r="B124" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>196</v>
+        <v>174</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>197</v>
+        <v>176</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="2" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="2" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="2" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="2" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="2" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="2" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="2" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="2" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="5"/>
+      <c r="A134" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="B134" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>199</v>
+        <v>148</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>200</v>
+        <v>150</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>202</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="B138" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="B139" s="2" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="2" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>203</v>
+        <v>160</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="2" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="2" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="2" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="2" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="B147" s="2" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="s">
-        <v>215</v>
-      </c>
+      <c r="A148" s="5"/>
       <c r="B148" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>204</v>
+        <v>174</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
       <c r="B149" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>205</v>
+        <v>176</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="5"/>
       <c r="B150" s="2" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="5"/>
       <c r="B151" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>98</v>
+        <v>260</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
       <c r="B152" s="2" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="5"/>
       <c r="B153" s="2" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="5"/>
       <c r="B154" s="2" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="5"/>
       <c r="B155" s="2" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="5"/>
       <c r="B156" s="2" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="5"/>
       <c r="B157" s="2" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="B158" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>199</v>
+        <v>148</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B159" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>200</v>
+        <v>150</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B160" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>202</v>
+        <v>97</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="2" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="2" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>206</v>
+        <v>160</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="2" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="2" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="2" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="2" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="2" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2792,7 +2932,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2803,7 +2943,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/XenditTestData.xlsx
+++ b/XenditTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XenditAutomation\XenditAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0AECEF-BC76-452E-81F8-2A5D14150604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706F322F-653E-41AC-9021-E24549C7BE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="284">
   <si>
     <t>Password</t>
   </si>
@@ -885,6 +885,12 @@
   </si>
   <si>
     <t>xpath#//button/div[text()='Apply']</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>https://pgwcms.globetel.com/</t>
   </si>
 </sst>
 </file>
@@ -1263,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,21 +1335,27 @@
         <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
       <c r="D8" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{42979E46-701C-4111-81E7-18BB96C5BA90}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{6403C1D8-D9CD-4702-B61A-0D588EB0653A}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{722C2890-9678-4E26-95F8-025F622290DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <headerFooter differentOddEven="1">
     <oddFooter>&amp;L&amp;"verdana,Regular"&amp;8&amp;K999999PUBLIC&amp;8
 &amp;"verdana,Regular"&amp;8For Public Use</oddFooter>
@@ -1358,7 +1370,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="B46" activeCellId="1" sqref="C53 B46"/>
     </sheetView>
   </sheetViews>
